--- a/docs/進捗管理(バーンダウンチャート)_tmplate.xlsx
+++ b/docs/進捗管理(バーンダウンチャート)_tmplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\作業\branch\ipa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -195,13 +195,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未完了</t>
-    <rPh sb="0" eb="3">
-      <t>ミカンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>検証者が完了した数</t>
     <rPh sb="0" eb="2">
       <t>ケンショウ</t>
@@ -241,11 +234,19 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -301,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -374,26 +375,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -430,11 +418,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,43 +612,42 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>進捗状況!$B$3:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>44652</c:v>
+                  <c:v>-</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44655</c:v>
+                  <c:v>2022/4/1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44656</c:v>
+                  <c:v>2022/4/4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44657</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2022/4/5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>進捗状況!$C$3:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>13.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>6.8888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-0.11111111111111072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -749,25 +745,24 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>進捗状況!$B$3:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>44652</c:v>
+                  <c:v>-</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44655</c:v>
+                  <c:v>2022/4/1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44656</c:v>
+                  <c:v>2022/4/4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44657</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2022/4/5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -776,13 +771,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -883,40 +878,39 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>進捗状況!$B$3:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>44652</c:v>
+                  <c:v>-</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44655</c:v>
+                  <c:v>2022/4/1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44656</c:v>
+                  <c:v>2022/4/4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44657</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2022/4/5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>進捗状況!$E$3:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1034,25 +1028,24 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>進捗状況!$B$3:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>44652</c:v>
+                  <c:v>-</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44655</c:v>
+                  <c:v>2022/4/1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44656</c:v>
+                  <c:v>2022/4/4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44657</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2022/4/5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1060,14 +1053,11 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:pt idx="1">
                   <c:v>0.35</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -1095,14 +1085,14 @@
         <c:axId val="2065698896"/>
         <c:axId val="2065698064"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="2066993552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1142,9 +1132,10 @@
         <c:crossAx val="2066994800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="2066994800"/>
         <c:scaling>
@@ -1244,23 +1235,24 @@
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="2065698896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2065698064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1271,7 +1263,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.5977411143954108E-2"/>
+          <c:y val="0.50502356441525298"/>
+          <c:w val="0.12799779925761706"/>
+          <c:h val="0.28973168832891316"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1898,16 +1899,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>187779</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:rowOff>37418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>1401535</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2192,19 +2193,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K9"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="8" width="20.375" customWidth="1"/>
-    <col min="11" max="11" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="9" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2218,188 +2222,169 @@
         <v>3</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B3" s="3">
+      <c r="C3" s="9">
+        <f ca="1">F8</f>
+        <v>20</v>
+      </c>
+      <c r="D3" s="9">
+        <f ca="1">F8</f>
+        <v>20</v>
+      </c>
+      <c r="E3" s="9">
+        <f ca="1">F8</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="16"/>
+      <c r="B4" s="12">
         <v>44652</v>
       </c>
-      <c r="C3" s="13">
-        <v>15</v>
-      </c>
-      <c r="D3" s="13">
-        <v>15</v>
-      </c>
-      <c r="E3" s="9">
-        <f ca="1">SUM(G3:H3)</f>
+      <c r="C4" s="13">
+        <f ca="1">C3-C3/COUNTA($B$4:$B$6)</f>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="D4" s="8">
+        <v>13</v>
+      </c>
+      <c r="E4" s="14">
+        <f ca="1">E3-SUM($H$4:$I$4)</f>
+        <v>13</v>
+      </c>
+      <c r="F4" s="10">
+        <f ca="1">IF(SUM(H4:I4)/$F$8=0,"",SUM(H4:I4)/$F$8)</f>
+        <v>0.35</v>
+      </c>
+      <c r="G4" s="9">
+        <f ca="1">IFERROR(COUNTIF((INDIRECT($H$2&amp;"!h4:h100")),$B4),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <f ca="1">IFERROR(COUNTIF(INDIRECT($H$2&amp;"!F4:F100"),$B4),0)</f>
         <v>7</v>
       </c>
-      <c r="F3" s="10">
-        <f ca="1">E3/E8</f>
-        <v>0.35</v>
-      </c>
-      <c r="G3" s="9">
-        <f ca="1">IFERROR(COUNTIF(INDIRECT($G$2&amp;"!F4:F100"),$B3),0)</f>
-        <v>7</v>
-      </c>
-      <c r="H3" s="9">
-        <f ca="1">IFERROR(COUNTIF(INDIRECT($H$2&amp;"!F4:F100"),$B3),0)</f>
+      <c r="I4" s="9">
+        <f ca="1">IFERROR(COUNTIF(INDIRECT($I$2&amp;"!F4:F100"),$B4),0)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="9">
-        <f ca="1">IFERROR(COUNTIF((INDIRECT($G$2&amp;"!h4:h100")),$B3),0)</f>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="16"/>
+      <c r="B5" s="12">
+        <v>44655</v>
+      </c>
+      <c r="C5" s="13">
+        <f ca="1">C4-C4/COUNTA($B$4:$B$6)-2</f>
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14">
+        <f ca="1">E4-SUM($H$5:$I$5)</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="10">
+        <f ca="1">IF(SUM(H5:I5)/$F$8=0,"",SUM(H5:I5)/$F$8+F4)</f>
+        <v>0.9</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" ref="G5:G6" ca="1" si="0">IFERROR(COUNTIF((INDIRECT($H$2&amp;"!h4:h100")),$B5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <f ca="1">IFERROR(COUNTIF(INDIRECT($H$2&amp;"!F4:F100"),$B5),0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" s="3">
-        <v>44655</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="I5" s="9">
+        <f ca="1">IFERROR(COUNTIF(INDIRECT($I$2&amp;"!F4:F100"),$B5),0)</f>
         <v>8</v>
       </c>
-      <c r="D4" s="13">
-        <v>8</v>
-      </c>
-      <c r="E4" s="9">
-        <f t="shared" ref="E4:E6" ca="1" si="0">SUM(G4:H4)</f>
-        <v>13</v>
-      </c>
-      <c r="F4" s="10">
-        <f ca="1">SUM(E3:E4)/E8</f>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="16"/>
+      <c r="B6" s="12">
+        <v>44656</v>
+      </c>
+      <c r="C6" s="13">
+        <f ca="1">C5-7</f>
+        <v>-0.11111111111111072</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <f ca="1">E5-SUM($H$6:$I$6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <f ca="1">IF(SUM(H6:I6)/$F$8=0,"",SUM(H6:I6)/$F$8+F5)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="9">
-        <f t="shared" ref="G4:G6" ca="1" si="1">IFERROR(COUNTIF(INDIRECT($G$2&amp;"!F4:F100"),$B4),0)</f>
-        <v>3</v>
-      </c>
-      <c r="H4" s="9">
-        <f t="shared" ref="H4:H6" ca="1" si="2">IFERROR(COUNTIF(INDIRECT($H$2&amp;"!F4:F100"),$B4),0)</f>
-        <v>10</v>
-      </c>
-      <c r="K4" s="9">
-        <f ca="1">IFERROR(COUNTIF((INDIRECT($H$2&amp;"!h4:h100")),$B4),0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="3">
-        <v>44656</v>
-      </c>
-      <c r="C5" s="13">
-        <v>5</v>
-      </c>
-      <c r="D5" s="13">
-        <v>5</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="G6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="10">
-        <f ca="1">SUM(E3:E5)/E8</f>
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H6" s="9">
+        <f ca="1">IFERROR(COUNTIF(INDIRECT($H$2&amp;"!F4:F100"),$B6),0)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="9">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <f ca="1">IFERROR(COUNTIF((INDIRECT($H$2&amp;"!h4:h100")),$B5),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="3">
-        <v>44657</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <f ca="1">SUM(E3:E6)/E8</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <f ca="1">IFERROR(COUNTIF((INDIRECT($H$2&amp;"!h4:h100")),$B6),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="D8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="9">
-        <f ca="1">SUM(G8:H8)</f>
+      <c r="I6" s="9">
+        <f ca="1">IFERROR(COUNTIF(INDIRECT($I$2&amp;"!F4:F100"),$B6),0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="9">
+        <f ca="1">SUM(H8:I8)</f>
         <v>20</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="9">
-        <f ca="1">IFERROR(COUNTIF((INDIRECT(G2&amp;"!e4:e100")),$B3),0)</f>
-        <v>10</v>
+      <c r="G8" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="H8" s="9">
         <f ca="1">IFERROR(COUNTIF((INDIRECT(H2&amp;"!e4:e100")),$B4),0)</f>
         <v>10</v>
       </c>
-      <c r="K8" s="9">
-        <f ca="1">SUM(K3:K6)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="D9" s="12"/>
-      <c r="E9" s="9">
-        <f ca="1">SUM(G9:H9)</f>
-        <v>7</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="9">
-        <f ca="1">G8-K3</f>
-        <v>7</v>
-      </c>
-      <c r="H9" s="9">
-        <f ca="1">H8-K4</f>
+      <c r="I8" s="9">
+        <f ca="1">IFERROR(COUNTIF((INDIRECT(I2&amp;"!e4:e100")),$B5),0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="E9" s="15" t="str">
+        <f>G2</f>
+        <v>検証者が完了した数</v>
+      </c>
+      <c r="F9" s="9">
+        <f ca="1">SUM(G4:G6)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D8:D9"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2412,7 +2397,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2491,9 +2476,7 @@
         <v>44652</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="3">
-        <v>44652</v>
-      </c>
+      <c r="H4" s="3"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
@@ -2511,9 +2494,7 @@
         <v>44652</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="3">
-        <v>44652</v>
-      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
@@ -2531,9 +2512,7 @@
         <v>44652</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="3">
-        <v>44652</v>
-      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
@@ -2551,9 +2530,7 @@
         <v>44652</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="3">
-        <v>44655</v>
-      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
@@ -2571,9 +2548,7 @@
         <v>44652</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="3">
-        <v>44655</v>
-      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
@@ -2591,9 +2566,7 @@
         <v>44652</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="3">
-        <v>44655</v>
-      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
@@ -2611,9 +2584,7 @@
         <v>44652</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="3">
-        <v>44655</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
@@ -2631,9 +2602,7 @@
         <v>44655</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="3">
-        <v>44655</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
@@ -2651,9 +2620,7 @@
         <v>44655</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="3">
-        <v>44655</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
@@ -2671,9 +2638,7 @@
         <v>44655</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="3">
-        <v>44655</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
@@ -2688,7 +2653,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2767,9 +2732,7 @@
         <v>44655</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="3">
-        <v>44655</v>
-      </c>
+      <c r="H4" s="3"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
@@ -2787,9 +2750,7 @@
         <v>44655</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="3">
-        <v>44655</v>
-      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
@@ -2807,9 +2768,7 @@
         <v>44655</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="3">
-        <v>44655</v>
-      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
@@ -2827,9 +2786,7 @@
         <v>44655</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="3">
-        <v>44655</v>
-      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
@@ -2847,9 +2804,7 @@
         <v>44655</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="3">
-        <v>44655</v>
-      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
@@ -2867,9 +2822,7 @@
         <v>44655</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="3">
-        <v>44655</v>
-      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
@@ -2887,9 +2840,7 @@
         <v>44655</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="3">
-        <v>44655</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
@@ -2907,9 +2858,7 @@
         <v>44655</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="3">
-        <v>44655</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
@@ -2924,12 +2873,10 @@
         <v>44655</v>
       </c>
       <c r="F12" s="3">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="3">
-        <v>44655</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
@@ -2944,12 +2891,10 @@
         <v>44655</v>
       </c>
       <c r="F13" s="3">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="3">
-        <v>44655</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
